--- a/Project_Design/차정훈/사전 합반 프로젝트_시스템기획.xlsx
+++ b/Project_Design/차정훈/사전 합반 프로젝트_시스템기획.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgn\OneDrive\문서\GitHub\Project_SkyPower\Project_Design\차정훈\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0CD66D-6F2F-4039-8A2E-928396FC3C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848CFD40-6F47-49B6-B8B1-062A03389E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3550" yWindow="1150" windowWidth="23380" windowHeight="19010" xr2:uid="{A4786322-8567-49EA-8D38-CBD0A6A70CDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="시스템 기획 회의" sheetId="4" r:id="rId1"/>
+    <sheet name="06-20" sheetId="4" r:id="rId1"/>
     <sheet name="속성" sheetId="2" r:id="rId2"/>
-    <sheet name="참고사이트" sheetId="3" r:id="rId3"/>
-    <sheet name="기타" sheetId="1" r:id="rId4"/>
+    <sheet name="적 디자인" sheetId="5" r:id="rId3"/>
+    <sheet name="참고사이트" sheetId="3" r:id="rId4"/>
+    <sheet name="기타" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="434">
   <si>
     <t>패턴화</t>
   </si>
@@ -1235,30 +1236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 잡옵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>래퍼런스 게임 참고 + 한번 제작해보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 길이에 따라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본적인 패턴의 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1503,6 +1480,572 @@
     <t>미구현이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 밀쳐내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 반사해서 유도로 적에 날에게 날리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 잡옵, 보스 클래스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟 보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가효과 or 추가 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상성 간 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;무기 자체에 속성을 부여할지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전용무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)추가안(확정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 스텟 추가 + 다양한 부가효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인캐릭터의 플레이 와 서브캐릭터의 서포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 탄막제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 스킬 사용 방식으로 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 반사해서 내껄로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N x M 범위 탄막을 즉시 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N x M 범위 탄막의 방향을 반대 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N x M 범위 탄막의 방향을 쏜 상대로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N x M 범위 탄막의 방향 반대로 바꾸며, 탄막이 플레이어의 탄막으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%증가 / +N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N회 탄막 방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포트 캐릭터 마다 패링시 효과를 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A캐릭터를 서포터로 배치 후 패링을 사용할 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 발동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B캐릭터를 서포터로 배치 후 패링을 사용할 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 발동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N초 동안 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 유형</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>난이도</t>
+  </si>
+  <si>
+    <t>직선탄 (Straight Shot)</t>
+  </si>
+  <si>
+    <t>한 방향으로 직선 발사</t>
+  </si>
+  <si>
+    <t>확산탄 (Spread Shot)</t>
+  </si>
+  <si>
+    <t>부채꼴로 다발 발사</t>
+  </si>
+  <si>
+    <t>연사탄 (Rapid Fire)</t>
+  </si>
+  <si>
+    <t>짧은 간격으로 빠르게 연속 발사</t>
+  </si>
+  <si>
+    <t>회전탄 (Spiral Shot)</t>
+  </si>
+  <si>
+    <t>회전하며 탄을 뿌리는 형태</t>
+  </si>
+  <si>
+    <t>꽃모양 확산탄 (Flower Spread)</t>
+  </si>
+  <si>
+    <t>중심에서 원형으로 퍼지는 다방향 탄</t>
+  </si>
+  <si>
+    <t>유도탄 (Homing Shot)</t>
+  </si>
+  <si>
+    <t>플레이어를 자동 추적</t>
+  </si>
+  <si>
+    <t>곡선탄 (Curved Shot)</t>
+  </si>
+  <si>
+    <t>휘어지는 경로로 이동</t>
+  </si>
+  <si>
+    <t>반사탄 (Reflect Shot)</t>
+  </si>
+  <si>
+    <t>벽에 부딪히면 튕기는 탄</t>
+  </si>
+  <si>
+    <t>사선탄 (Diagonal Shot)</t>
+  </si>
+  <si>
+    <t>대각선 방향으로 발사</t>
+  </si>
+  <si>
+    <t>랜덤탄 (Random Shot)</t>
+  </si>
+  <si>
+    <t>불규칙한 방향이나 위치에서 발사</t>
+  </si>
+  <si>
+    <t>레이저 (Laser Beam)</t>
+  </si>
+  <si>
+    <t>직선의 강력한 광선, 지속형도 가능</t>
+  </si>
+  <si>
+    <t>차징탄 (Charge Shot)</t>
+  </si>
+  <si>
+    <t>발사 전에 충전 후 폭발 또는 강력 공격</t>
+  </si>
+  <si>
+    <t>장벽탄 (Barrier Shot)</t>
+  </si>
+  <si>
+    <t>화면 일부를 가로막는 벽 형태 탄</t>
+  </si>
+  <si>
+    <t>보류</t>
+  </si>
+  <si>
+    <t>스웜탄 (Swarm Shot)</t>
+  </si>
+  <si>
+    <t>벌떼처럼 몰려오는 탄</t>
+  </si>
+  <si>
+    <t>블록 탄 (Bullet Wall)</t>
+  </si>
+  <si>
+    <t>직선 벽처럼 밀려오는 탄막</t>
+  </si>
+  <si>
+    <t>느린 유도탄 (Stealth Homing)</t>
+  </si>
+  <si>
+    <t>일정 시간동안 느리게 따라오는 유도탄</t>
+  </si>
+  <si>
+    <t>연쇄 폭발탄 (Chain Bomb)</t>
+  </si>
+  <si>
+    <t>맞으면 주변으로 연쇄 폭발 발생</t>
+  </si>
+  <si>
+    <t>타이밍 회피형 (Delayed Blast)</t>
+  </si>
+  <si>
+    <t>일정 시간 후 폭발하는 예고탄</t>
+  </si>
+  <si>
+    <t>위치 유도형 (Position Lock)</t>
+  </si>
+  <si>
+    <t>안전지대를 제외한 전 범위 공격 유도</t>
+  </si>
+  <si>
+    <t>슬로우/패스트 혼합탄</t>
+  </si>
+  <si>
+    <t>속도가 다른 탄을 섞어 리듬 회피 유도</t>
+  </si>
+  <si>
+    <t>무늬형 탄막 (Patterned Bullet)</t>
+  </si>
+  <si>
+    <t>별, 하트, 나선 등으로 배치된 탄</t>
+  </si>
+  <si>
+    <t>대형 레이저 (Uncancelable Beam)</t>
+  </si>
+  <si>
+    <t>피격 유도, 무적 상태 무시 가능</t>
+  </si>
+  <si>
+    <t>탄막 생성 오브젝트</t>
+  </si>
+  <si>
+    <t>탄막을 대신 뿌리는 적 오브젝트 소환</t>
+  </si>
+  <si>
+    <t>유형</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>고정</t>
+  </si>
+  <si>
+    <t>적 생성 후 고정됨</t>
+  </si>
+  <si>
+    <t>추적</t>
+  </si>
+  <si>
+    <t>적 생성 후 플레이어의 X값을 따라 좌우 이동</t>
+  </si>
+  <si>
+    <t>좌우 이동</t>
+  </si>
+  <si>
+    <t>플레이어와 관계없이 좌우 이동</t>
+  </si>
+  <si>
+    <t>전진/후퇴 이동</t>
+  </si>
+  <si>
+    <t>플레이어와 관계없이 상하 이동</t>
+  </si>
+  <si>
+    <t>사선 이동</t>
+  </si>
+  <si>
+    <t>플레이어와 관계없이 사선 이동</t>
+  </si>
+  <si>
+    <t>좌표값 생성</t>
+  </si>
+  <si>
+    <t>특정 좌표에 ON/OFF 형식으로 생성</t>
+  </si>
+  <si>
+    <t>화면 밖 생성</t>
+  </si>
+  <si>
+    <t>화면밖에서 생성 후 화면 내 진입</t>
+  </si>
+  <si>
+    <t>제한 시간</t>
+  </si>
+  <si>
+    <t>제한된 시간이 지나면 ON/OFF 형식으로 소멸</t>
+  </si>
+  <si>
+    <t>화면 밖 이동</t>
+  </si>
+  <si>
+    <t>화면 밖으로 이동 후 소멸</t>
+  </si>
+  <si>
+    <t>처치</t>
+  </si>
+  <si>
+    <t>사망 모션 후 소멸</t>
+  </si>
+  <si>
+    <t>주기성</t>
+  </si>
+  <si>
+    <t>특정 시간마다 발사</t>
+  </si>
+  <si>
+    <t>지속성</t>
+  </si>
+  <si>
+    <t>생성 후 소멸 전까지 지속적으로 발사</t>
+  </si>
+  <si>
+    <t>페이지 별 공격</t>
+  </si>
+  <si>
+    <t>페이지 별로 발사 타입이 변함</t>
+  </si>
+  <si>
+    <t>기본
+공격
+유형</t>
+  </si>
+  <si>
+    <t>고급
+공격
+유형</t>
+  </si>
+  <si>
+    <t>특수
+적 공격
+유형
+(보스, 앨리트)</t>
+  </si>
+  <si>
+    <t>특수 패턴/기믹
+공격 유형</t>
+  </si>
+  <si>
+    <t>테크니컬 
+공격 유형</t>
+  </si>
+  <si>
+    <t>움직임 종류</t>
+  </si>
+  <si>
+    <t>적 생성 패턴</t>
+  </si>
+  <si>
+    <t>적 소멸 패턴</t>
+  </si>
+  <si>
+    <t>탄 발사 조건</t>
+  </si>
+  <si>
+    <t>편성된 서브 캐릭터에 따라 패링 효과와 스탯의 증가치가 달라진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급에 따라 수치 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 캐릭터 서포트 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 이야기 해볼 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터편성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템창과 같이 나와서 장비 할것인가? 따로 장비창을 만들것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편성 탭을 따로 만들어서 편성을 한 뒤에 시작할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 선택 후 편성 한 뒤에 시작을 할것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1511,7 +2054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,8 +2169,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1694,8 +2274,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE9F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D94D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF215E99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF153D64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1900,13 +2516,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2012,16 +2785,226 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,260 +3013,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2308,13 +3186,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2330,7 +3208,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7867650" y="6089650"/>
+          <a:off x="7867650" y="6305550"/>
           <a:ext cx="895350" cy="1155700"/>
           <a:chOff x="8470900" y="641350"/>
           <a:chExt cx="895350" cy="1155700"/>
@@ -2835,13 +3713,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2857,7 +3735,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7753350" y="8026400"/>
+          <a:off x="7753350" y="8242300"/>
           <a:ext cx="1047750" cy="1054100"/>
           <a:chOff x="7359650" y="2692400"/>
           <a:chExt cx="1898650" cy="1924050"/>
@@ -3313,6 +4191,1577 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505188</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223684</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>214524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3EB7AE-6DA8-C1DE-9EE1-610E8CE951A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="7"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8149001" y="8482589"/>
+          <a:ext cx="377308" cy="375873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354166</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223684</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F58E0A-4394-9CCA-735A-1B785054B2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="20" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7997979" y="8482589"/>
+          <a:ext cx="528330" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354166</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86657</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>218003</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49B00AB-4F84-87AF-922C-1FBB86C31539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="6"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7997979" y="8482589"/>
+          <a:ext cx="391303" cy="379352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606085</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178198</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787EBDFC-E0F5-EC7B-E9DB-37EC6FE3B216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="16" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8249898" y="8268638"/>
+          <a:ext cx="230925" cy="556621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414306</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607142</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DCDDB-45AD-70F0-959D-0E454E8A1A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="4"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8077601" y="8275132"/>
+          <a:ext cx="192836" cy="553142"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>408608</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171174</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="그룹 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFB7E79-6C1F-4650-92C0-5CC1DDF8A95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4565650" y="18014950"/>
+          <a:ext cx="859458" cy="952224"/>
+          <a:chOff x="8470900" y="641350"/>
+          <a:chExt cx="895350" cy="1155700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="그룹 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CD8770-9C5A-FC7A-A43D-43209E13057D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8470900" y="641350"/>
+            <a:ext cx="895350" cy="704850"/>
+            <a:chOff x="8470900" y="641350"/>
+            <a:chExt cx="895350" cy="704850"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="타원 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F584C2-A7BC-ECF0-BA05-7D18A4A98566}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8826500" y="641350"/>
+              <a:ext cx="228600" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="타원 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CA1BEF-637D-26EC-B7CC-307B1869F655}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8470900" y="1085850"/>
+              <a:ext cx="228600" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="타원 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893801BB-354E-1075-0103-095CB8115F8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9137650" y="1092200"/>
+              <a:ext cx="228600" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="53" name="직선 화살표 연결선 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9D9870-C804-0BD8-648D-112088649572}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="50" idx="5"/>
+              <a:endCxn id="52" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9021622" y="858153"/>
+              <a:ext cx="149506" cy="271244"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="직선 화살표 연결선 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2556DC1A-E3C2-9AB2-0291-24F91665A80D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="52" idx="2"/>
+              <a:endCxn id="51" idx="6"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="8699500" y="1212850"/>
+              <a:ext cx="438150" cy="6350"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86332E1-4B25-0C76-B3F1-184FD4C8D41E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="51" idx="7"/>
+              <a:endCxn id="50" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="8666022" y="858153"/>
+              <a:ext cx="193956" cy="264894"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="그룹 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19FA599-265E-8747-04D6-0F08582E372E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8483600" y="1536700"/>
+            <a:ext cx="882650" cy="260350"/>
+            <a:chOff x="8483600" y="1536700"/>
+            <a:chExt cx="882650" cy="260350"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="타원 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52228A9B-7CAF-DA6F-DAA8-4D344E1FE1C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8483600" y="1543050"/>
+              <a:ext cx="228600" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="타원 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6592114E-7387-CDCA-A8F1-F59460B5A507}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9137650" y="1536700"/>
+              <a:ext cx="228600" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="직선 화살표 연결선 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9B954F-7B15-5F91-A9B2-84A2890600C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="47" idx="1"/>
+              <a:endCxn id="46" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8678722" y="1573897"/>
+              <a:ext cx="492406" cy="6350"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="직선 화살표 연결선 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7A8B45-CF3F-63A9-7F65-2FED3E357A2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="46" idx="5"/>
+              <a:endCxn id="47" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="8678722" y="1753503"/>
+              <a:ext cx="492406" cy="6350"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="그룹 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E6DBC2-DAB9-4295-A918-091E2479B7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4451350" y="19945350"/>
+          <a:ext cx="1047750" cy="1054100"/>
+          <a:chOff x="7359650" y="2692400"/>
+          <a:chExt cx="1898650" cy="1924050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="타원 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F58AE6-584E-8115-F060-30AAB6AE4745}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8051800" y="2692400"/>
+            <a:ext cx="469900" cy="450850"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="타원 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5082D060-46D3-A0F5-6781-0734A8292490}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8788400" y="3308350"/>
+            <a:ext cx="469900" cy="450850"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="타원 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB14551-1477-4762-0A68-AC2D393F3926}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8470900" y="4159250"/>
+            <a:ext cx="469900" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="타원 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4192D880-0F6F-70F7-E4A2-3BDECC8F0E3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7702550" y="4152900"/>
+            <a:ext cx="469900" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="타원 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467AF2EE-1772-DCD0-D1C5-271660ADE79A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7359650" y="3308350"/>
+            <a:ext cx="469900" cy="450850"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="직선 화살표 연결선 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95102C00-780F-EFAD-F382-D3C0DC4FD60A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="74" idx="0"/>
+            <a:endCxn id="73" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="8521700" y="2917825"/>
+            <a:ext cx="501650" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="직선 화살표 연결선 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B630C7-1DED-6BE0-D503-D1206D75C4BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="73" idx="2"/>
+            <a:endCxn id="77" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7594600" y="2917825"/>
+            <a:ext cx="457200" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="직선 화살표 연결선 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94C2D07-4EA1-D9F6-4E8C-0F8C176E9FE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="77" idx="4"/>
+            <a:endCxn id="76" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7594600" y="3759200"/>
+            <a:ext cx="176765" cy="460655"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="직선 화살표 연결선 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BB3CA5-53AA-8656-B606-D103FDF911DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="76" idx="6"/>
+            <a:endCxn id="75" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8172450" y="4381500"/>
+            <a:ext cx="298450" cy="6350"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="직선 화살표 연결선 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AF38EB-4E96-6AD0-E65B-08D352489E55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="75" idx="7"/>
+            <a:endCxn id="74" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8871985" y="3759200"/>
+            <a:ext cx="151365" cy="467005"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>505188</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223684</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>214524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="직선 화살표 연결선 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1938C-AD2F-435D-9F22-4A861BD466A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="7"/>
+          <a:endCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8140129" y="8554960"/>
+          <a:ext cx="375908" cy="377740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354166</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223684</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="직선 화살표 연결선 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3AF4D0-7488-4C67-997A-885C82BA88CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="77" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7989107" y="8554960"/>
+          <a:ext cx="526930" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354166</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86657</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>218003</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="직선 화살표 연결선 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AC5A78-943A-41B4-902D-63B32C79431C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="6"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7989107" y="8554960"/>
+          <a:ext cx="389903" cy="381219"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606085</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>69200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178198</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>181321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBFC132-78EF-467A-8985-0AC9240018E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+          <a:endCxn id="73" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8241026" y="8339141"/>
+          <a:ext cx="229525" cy="560356"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414306</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>69200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607142</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>177842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="직선 화살표 연결선 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0271A87-6D01-4EF8-ABB0-097A252CE121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="4"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8049247" y="8339141"/>
+          <a:ext cx="192836" cy="556877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4631,10 +7080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F0935-B150-4329-9ECB-F60EAC064B2A}">
-  <dimension ref="B1:XFD130"/>
+  <dimension ref="B1:XFD192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4642,6 +7091,7 @@
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17.5" thickBot="1"/>
@@ -4649,507 +7099,502 @@
       <c r="B2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="74">
         <v>45828</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="17.5" thickBot="1"/>
+    <row r="3" spans="2:19" ht="17.5" thickBot="1">
+      <c r="C3" s="77"/>
+    </row>
     <row r="4" spans="2:19" ht="17.5" thickBot="1">
       <c r="B4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="2:19" ht="17.5" thickBot="1">
+      <c r="C6" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:19" ht="17.5" thickBot="1"/>
+    <row r="8" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B8" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="47" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C9" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-    </row>
-    <row r="6" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="78" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+    </row>
+    <row r="10" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B10" s="106"/>
+      <c r="C10" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="63"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="48"/>
-      <c r="C7" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="106"/>
+      <c r="C11" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="63"/>
-    </row>
-    <row r="8" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="68" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="44"/>
+    </row>
+    <row r="12" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B12" s="106"/>
+      <c r="C12" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="63"/>
-    </row>
-    <row r="9" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="33" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="44"/>
+    </row>
+    <row r="13" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B13" s="106"/>
+      <c r="C13" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="32" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="27" t="s">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R13" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="45" t="s">
+    <row r="14" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B14" s="106"/>
+      <c r="C14" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D14" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="17" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="O14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S14" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="76" t="s">
+    <row r="15" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B15" s="106"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E15" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="20" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="O15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R15" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S15" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="77" t="s">
+    <row r="16" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B16" s="106"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="28" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R16" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="77" t="s">
+    <row r="17" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B17" s="106"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="29" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="O17" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R17" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S17" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B14" s="48"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="77" t="s">
+    <row r="18" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B18" s="106"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="18" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="16"/>
-      <c r="O14" s="30" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="16"/>
+      <c r="O18" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R18" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S18" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B15" s="48"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="34" t="s">
+    <row r="19" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B19" s="106"/>
+      <c r="R19" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S19" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="P16" s="59"/>
-      <c r="R16" s="34" t="s">
+    <row r="20" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B20" s="106"/>
+      <c r="P20" s="44"/>
+      <c r="R20" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S20" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B17" s="48"/>
-      <c r="R17" s="34" t="s">
+    <row r="21" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B21" s="106"/>
+      <c r="R21" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S21" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B18" s="48"/>
-      <c r="R18" s="34" t="s">
+    <row r="22" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B22" s="106"/>
+      <c r="R22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S22" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B19" s="41"/>
-      <c r="R19" s="34" t="s">
+    <row r="23" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B23" s="35"/>
+      <c r="R23" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S23" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="17.5" thickBot="1"/>
-    <row r="21" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B21" s="14" t="s">
+    <row r="26" spans="2:19" ht="17.5" thickBot="1"/>
+    <row r="27" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B27" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B22" s="13" t="s">
+      <c r="C27" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="16"/>
+      <c r="O27" s="44"/>
+    </row>
+    <row r="28" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B28" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="2:19" ht="17.5" thickBot="1">
-      <c r="C23" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="25" spans="2:19" ht="17.5" thickBot="1"/>
-    <row r="26" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B26" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B27" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="42" t="s">
+      <c r="O28" s="44"/>
+    </row>
+    <row r="29" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B29" s="98"/>
+      <c r="C29" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="81" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="7"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="17.5" thickBot="1">
+      <c r="B30" s="98"/>
+      <c r="C30" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="26"/>
+      <c r="G30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
+      <c r="O30" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="83" t="s">
-        <v>71</v>
+      <c r="B31" s="98"/>
+      <c r="C31" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="16"/>
       <c r="G31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -5157,19 +7602,26 @@
       <c r="K31" s="26"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
+      <c r="O31" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" s="13"/>
     </row>
     <row r="32" spans="2:19" ht="17.5" thickBot="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>81</v>
+      <c r="B32" s="98"/>
+      <c r="C32" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="16"/>
       <c r="G32" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -5177,109 +7629,138 @@
       <c r="K32" s="26"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="25"/>
+      <c r="O32" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B33" s="98"/>
+      <c r="C33" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B34" s="90"/>
-      <c r="C34" t="s">
+      <c r="O33" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B34" s="98"/>
+      <c r="C34" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="O34" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B35" s="98"/>
+      <c r="C35" t="s">
         <v>198</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L35" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" t="s">
+      <c r="M35" s="104"/>
+      <c r="N35" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B35" s="90"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="33" t="s">
+      <c r="O35" s="44"/>
+    </row>
+    <row r="36" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B36" s="98"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B37" s="98"/>
+      <c r="C37" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G37" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="81" t="s">
+    <row r="38" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B38" s="98"/>
+      <c r="C38" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B38" s="90"/>
-      <c r="C38" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B39" s="90"/>
-      <c r="C39" s="86" t="s">
-        <v>87</v>
+      <c r="G38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="7"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B39" s="98"/>
+      <c r="C39" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="16"/>
       <c r="G39" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -5287,19 +7768,24 @@
       <c r="K39" s="11"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B40" s="90"/>
-      <c r="C40" s="87" t="s">
-        <v>88</v>
+      <c r="O39" s="45"/>
+      <c r="P39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B40" s="98"/>
+      <c r="C40" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -5307,1093 +7793,1836 @@
       <c r="K40" s="11"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B41" s="90"/>
-      <c r="C41" s="88" t="s">
-        <v>89</v>
+      <c r="O40" s="45"/>
+      <c r="P40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B41" s="98"/>
+      <c r="C41" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="16"/>
       <c r="G41" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B42" s="90"/>
-      <c r="C42" t="s">
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B42" s="98"/>
+      <c r="C42" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B43" s="98"/>
+      <c r="C43" t="s">
         <v>171</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="L43" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="M42" s="38"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="90"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="90"/>
-      <c r="C44" t="s">
+      <c r="M43" s="93"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="98"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="98"/>
+      <c r="C45" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D45" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="90"/>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="98"/>
+      <c r="C46" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="90"/>
-    </row>
-    <row r="47" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B47" s="90"/>
-      <c r="C47" t="s">
+    <row r="47" spans="2:17">
+      <c r="B47" s="98"/>
+    </row>
+    <row r="48" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B48" s="98"/>
+      <c r="C48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B48" s="90"/>
-      <c r="C48" s="33" t="s">
+    <row r="49" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B49" s="98"/>
+      <c r="C49" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B49" s="90"/>
-      <c r="C49" s="81" t="s">
+    <row r="50" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B50" s="98"/>
+      <c r="C50" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E50" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F50" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B50" s="90"/>
-      <c r="C50" s="82" t="s">
+    <row r="51" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B51" s="98"/>
+      <c r="C51" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E51" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B51" s="90"/>
-      <c r="C51" s="86" t="s">
+    <row r="52" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B52" s="98"/>
+      <c r="C52" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E52" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B52" s="90"/>
-      <c r="C52" s="87" t="s">
+    <row r="53" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B53" s="98"/>
+      <c r="C53" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E53" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B53" s="90"/>
-      <c r="C53" s="88" t="s">
+    <row r="54" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B54" s="98"/>
+      <c r="C54" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B54" s="90"/>
-      <c r="E54" s="34" t="s">
+    <row r="55" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B55" s="98"/>
+      <c r="E55" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B55" s="90"/>
-      <c r="E55" s="34" t="s">
+    <row r="56" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B56" s="98"/>
+      <c r="E56" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B56" s="90"/>
-      <c r="E56" s="34" t="s">
+    <row r="57" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B57" s="98"/>
+      <c r="E57" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B57" s="90"/>
-      <c r="E57" s="34" t="s">
+    <row r="58" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B58" s="98"/>
+      <c r="E58" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F58" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B58" s="90"/>
-      <c r="E58" s="34" t="s">
+    <row r="59" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B59" s="98"/>
+      <c r="E59" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="90"/>
-      <c r="C59" t="s">
+    <row r="60" spans="2:6">
+      <c r="B60" s="98"/>
+      <c r="C60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="90"/>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="90"/>
-      <c r="C61" t="s">
+    <row r="61" spans="2:6">
+      <c r="B61" s="98"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="98"/>
+      <c r="C62" t="s">
         <v>190</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="90"/>
-    </row>
-    <row r="63" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B63" s="90"/>
-      <c r="C63" s="40" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" s="98"/>
+    </row>
+    <row r="64" spans="2:6" ht="17.5" thickBot="1">
+      <c r="B64" s="98"/>
+      <c r="C64" t="s">
         <v>202</v>
       </c>
-      <c r="D63" s="40"/>
-    </row>
-    <row r="64" spans="2:12" ht="17.5" thickBot="1">
-      <c r="B64" s="90"/>
-      <c r="C64" s="33" t="s">
+    </row>
+    <row r="65" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B65" s="98"/>
+      <c r="C65" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E65" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="95" t="s">
+      <c r="G65" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H65" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="16"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B65" s="90"/>
-      <c r="C65" s="81" t="s">
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B66" s="98"/>
+      <c r="C66" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E66" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="97"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="92"/>
-    </row>
-    <row r="66" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B66" s="90"/>
-      <c r="C66" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H66" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="H66" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" s="68"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="19"/>
-      <c r="L66" s="92"/>
-    </row>
-    <row r="67" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B67" s="90"/>
-      <c r="C67" s="86" t="s">
-        <v>71</v>
+      <c r="L66" s="66"/>
+    </row>
+    <row r="67" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B67" s="98"/>
+      <c r="C67" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
-      <c r="L67" s="92"/>
-    </row>
-    <row r="68" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B68" s="90"/>
-      <c r="C68" s="87" t="s">
-        <v>88</v>
+      <c r="L67" s="66"/>
+    </row>
+    <row r="68" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B68" s="98"/>
+      <c r="C68" s="63" t="s">
+        <v>71</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="92"/>
-    </row>
-    <row r="69" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B69" s="90"/>
-      <c r="C69" s="88" t="s">
-        <v>89</v>
+      <c r="L68" s="66"/>
+    </row>
+    <row r="69" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B69" s="98"/>
+      <c r="C69" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
-      <c r="L69" s="92"/>
-    </row>
-    <row r="70" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B70" s="90"/>
-      <c r="C70" t="s">
-        <v>210</v>
+      <c r="L69" s="66"/>
+    </row>
+    <row r="70" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B70" s="98"/>
+      <c r="C70" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B71" s="90"/>
+      <c r="L70" s="66"/>
+    </row>
+    <row r="71" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B71" s="98"/>
+      <c r="C71" t="s">
+        <v>210</v>
+      </c>
       <c r="E71" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B72" s="90"/>
+      <c r="H71" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B72" s="98"/>
       <c r="E72" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
     </row>
-    <row r="73" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B73" s="90"/>
+    <row r="73" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B73" s="98"/>
       <c r="E73" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
     </row>
-    <row r="74" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B74" s="90"/>
+    <row r="74" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B74" s="98"/>
       <c r="E74" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="12"/>
     </row>
-    <row r="75" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B75" s="91"/>
-      <c r="C75" t="s">
-        <v>219</v>
+    <row r="75" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B75" s="98"/>
+      <c r="E75" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="77" spans="2:12 16384:16384" ht="17.5" thickBot="1"/>
-    <row r="78" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B78" s="13" t="s">
+    <row r="76" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B76" s="98"/>
+      <c r="C76" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="98"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="98"/>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="98"/>
+    </row>
+    <row r="80" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B80" s="98"/>
+      <c r="C80" s="159" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q80" s="44"/>
+    </row>
+    <row r="81" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B81" s="98"/>
+      <c r="C81" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J81" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="K81" s="92"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B82" s="98"/>
+      <c r="C82" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="76"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K82" s="47"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B83" s="98"/>
+      <c r="C83" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="J83" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
+    </row>
+    <row r="84" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B84" s="98"/>
+      <c r="C84" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B85" s="98"/>
+      <c r="C85" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B86" s="98"/>
+      <c r="C86" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B87" s="98"/>
+      <c r="G87" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="93"/>
+      <c r="I87" s="44"/>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="98"/>
+      <c r="Q88" s="44"/>
+    </row>
+    <row r="89" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B89" s="98"/>
+      <c r="Q89" s="44"/>
+    </row>
+    <row r="90" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B90" s="98"/>
+      <c r="C90" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J90" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="K90" s="92"/>
+      <c r="L90" s="93"/>
+      <c r="M90" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="N90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B91" s="98"/>
+      <c r="C91" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="19"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K91" s="47"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B92" s="98"/>
+      <c r="C92" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="J92" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="K92" s="101"/>
+      <c r="L92" s="101"/>
+      <c r="M92" s="102"/>
+    </row>
+    <row r="93" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B93" s="98"/>
+      <c r="C93" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B94" s="98"/>
+      <c r="C94" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B95" s="98"/>
+      <c r="C95" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="2:17" ht="17.5" thickBot="1">
+      <c r="B96" s="99"/>
+      <c r="G96" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96" s="93"/>
+    </row>
+    <row r="97" spans="2:17 16384:16384">
+      <c r="Q97" s="44"/>
+    </row>
+    <row r="98" spans="2:17 16384:16384">
+      <c r="Q98" s="44"/>
+    </row>
+    <row r="100" spans="2:17 16384:16384" ht="17.5" thickBot="1"/>
+    <row r="101" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B101" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C101" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="40"/>
-    </row>
-    <row r="79" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B79" s="47" t="s">
+    </row>
+    <row r="102" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B102" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C102" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D102" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="2:12 16384:16384" ht="17.5" thickBot="1">
-      <c r="B80" s="48"/>
-      <c r="C80" s="13" t="s">
+    <row r="103" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B103" s="106"/>
+      <c r="C103" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D103" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E103" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="16"/>
-      <c r="XFD80" t="s">
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="16"/>
+      <c r="XFD103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B81" s="48"/>
-      <c r="C81" s="93" t="s">
+    <row r="104" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B104" s="106"/>
+      <c r="C104" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D104" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B82" s="48"/>
-      <c r="C82" s="93" t="s">
+    <row r="105" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B105" s="106"/>
+      <c r="C105" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D105" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B83" s="48"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-    </row>
-    <row r="84" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B84" s="108"/>
-      <c r="C84" s="109" t="s">
+    <row r="106" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B106" s="106"/>
+    </row>
+    <row r="107" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B107" s="88"/>
+      <c r="C107" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="110" t="s">
+      <c r="D107" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B85" s="48"/>
-      <c r="C85" s="99" t="s">
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B108" s="106"/>
+      <c r="C108" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="D108" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B86" s="48"/>
-      <c r="C86" s="93" t="s">
+    <row r="109" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B109" s="106"/>
+      <c r="C109" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D109" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="16"/>
-      <c r="H86" s="18" t="s">
+      <c r="E109" s="19"/>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B110" s="106"/>
+      <c r="C110" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B111" s="106"/>
+      <c r="C111" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17 16384:16384" ht="17.5" thickBot="1">
+      <c r="B112" s="107"/>
+      <c r="C112" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+    </row>
+    <row r="114" spans="2:12" ht="17.5" thickBot="1">
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+    </row>
+    <row r="115" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B115" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>292</v>
+      </c>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+    </row>
+    <row r="116" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B116" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+    </row>
+    <row r="117" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B117" s="106"/>
+      <c r="C117" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="E117" s="95"/>
+      <c r="F117" s="95"/>
+      <c r="G117" s="95"/>
+      <c r="H117" s="95"/>
+      <c r="I117" s="95"/>
+      <c r="J117" s="95"/>
+      <c r="K117" s="95"/>
+      <c r="L117" s="96"/>
+    </row>
+    <row r="118" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B118" s="106"/>
+      <c r="C118" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" s="92"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="92"/>
+      <c r="H118" s="92"/>
+      <c r="I118" s="92"/>
+      <c r="J118" s="92"/>
+      <c r="K118" s="92"/>
+      <c r="L118" s="93"/>
+    </row>
+    <row r="119" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B119" s="106"/>
+      <c r="C119" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+      <c r="J119" s="92"/>
+      <c r="K119" s="92"/>
+      <c r="L119" s="93"/>
+    </row>
+    <row r="120" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B120" s="106"/>
+      <c r="C120" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
+      <c r="K120" s="92"/>
+      <c r="L120" s="93"/>
+    </row>
+    <row r="121" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B121" s="106"/>
+      <c r="C121" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
+      <c r="K121" s="92"/>
+      <c r="L121" s="93"/>
+    </row>
+    <row r="122" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B122" s="106"/>
+      <c r="C122" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="92"/>
+      <c r="H122" s="92"/>
+      <c r="I122" s="92"/>
+      <c r="J122" s="92"/>
+      <c r="K122" s="92"/>
+      <c r="L122" s="93"/>
+    </row>
+    <row r="123" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B123" s="106"/>
+      <c r="C123" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="92"/>
+      <c r="K123" s="92"/>
+      <c r="L123" s="93"/>
+    </row>
+    <row r="124" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B124" s="106"/>
+      <c r="C124" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" s="92"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="92"/>
+      <c r="H124" s="92"/>
+      <c r="I124" s="92"/>
+      <c r="J124" s="92"/>
+      <c r="K124" s="92"/>
+      <c r="L124" s="93"/>
+    </row>
+    <row r="125" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B125" s="106"/>
+      <c r="C125" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
+      <c r="K125" s="92"/>
+      <c r="L125" s="93"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="106"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+    </row>
+    <row r="127" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B127" s="106"/>
+      <c r="C127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" ht="17.5" thickBot="1">
+      <c r="B128" s="106"/>
+      <c r="C128" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="92"/>
+      <c r="G128" s="92"/>
+      <c r="H128" s="92"/>
+      <c r="I128" s="93"/>
+    </row>
+    <row r="129" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B129" s="106"/>
+      <c r="C129" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" s="92"/>
+      <c r="E129" s="92"/>
+      <c r="F129" s="92"/>
+      <c r="G129" s="92"/>
+      <c r="H129" s="92"/>
+      <c r="I129" s="93"/>
+    </row>
+    <row r="130" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B130" s="106"/>
+      <c r="C130" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" s="92"/>
+      <c r="G130" s="92"/>
+      <c r="H130" s="92"/>
+      <c r="I130" s="93"/>
+    </row>
+    <row r="131" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B131" s="106"/>
+      <c r="C131" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E131" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="F131" s="92"/>
+      <c r="G131" s="92"/>
+      <c r="H131" s="92"/>
+      <c r="I131" s="93"/>
+    </row>
+    <row r="132" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B132" s="106"/>
+      <c r="C132" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="F132" s="92"/>
+      <c r="G132" s="92"/>
+      <c r="H132" s="92"/>
+      <c r="I132" s="93"/>
+    </row>
+    <row r="133" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B133" s="106"/>
+      <c r="C133" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E133" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="93"/>
+      <c r="K133" s="44"/>
+      <c r="L133" s="44"/>
+      <c r="M133" s="44"/>
+    </row>
+    <row r="134" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B134" s="106"/>
+      <c r="C134" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E134" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" s="92"/>
+      <c r="G134" s="92"/>
+      <c r="H134" s="92"/>
+      <c r="I134" s="93"/>
+      <c r="K134" s="44"/>
+      <c r="L134" s="44"/>
+      <c r="M134" s="44"/>
+    </row>
+    <row r="135" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B135" s="106"/>
+      <c r="C135" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E135" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="F135" s="92"/>
+      <c r="G135" s="92"/>
+      <c r="H135" s="92"/>
+      <c r="I135" s="93"/>
+      <c r="M135" s="44"/>
+    </row>
+    <row r="136" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B136" s="106"/>
+      <c r="C136" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E136" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" s="92"/>
+      <c r="G136" s="92"/>
+      <c r="H136" s="92"/>
+      <c r="I136" s="93"/>
+      <c r="K136" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L136" s="13"/>
+      <c r="M136" s="44"/>
+    </row>
+    <row r="137" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B137" s="106"/>
+      <c r="C137" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="F137" s="92"/>
+      <c r="G137" s="92"/>
+      <c r="H137" s="92"/>
+      <c r="I137" s="93"/>
+      <c r="K137" t="s">
+        <v>230</v>
+      </c>
+      <c r="M137" s="44"/>
+    </row>
+    <row r="138" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B138" s="106"/>
+      <c r="C138" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="F138" s="92"/>
+      <c r="G138" s="92"/>
+      <c r="H138" s="92"/>
+      <c r="I138" s="93"/>
+      <c r="K138" t="s">
+        <v>231</v>
+      </c>
+      <c r="M138" s="44"/>
+    </row>
+    <row r="139" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B139" s="106"/>
+      <c r="C139" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="92"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="92"/>
+      <c r="H139" s="92"/>
+      <c r="I139" s="93"/>
+      <c r="K139" t="s">
+        <v>232</v>
+      </c>
+      <c r="M139" s="44"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="106"/>
+      <c r="C140" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="80"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="80"/>
+      <c r="H140" s="80"/>
+      <c r="I140" s="81"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="106"/>
+      <c r="C141" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="86"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="86"/>
+      <c r="G141" s="86"/>
+      <c r="H141" s="86"/>
+      <c r="I141" s="87"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="106"/>
+      <c r="C142" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="89"/>
+      <c r="G142" s="89"/>
+      <c r="H142" s="89"/>
+      <c r="I142" s="90"/>
+    </row>
+    <row r="143" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B143" s="106"/>
+      <c r="C143" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="84"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="106"/>
+      <c r="C144" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="81"/>
+    </row>
+    <row r="145" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B145" s="107"/>
+      <c r="C145" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" s="83"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="83"/>
+      <c r="H145" s="83"/>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="148" spans="2:13" s="159" customFormat="1"/>
+    <row r="150" spans="2:13" ht="17.5" thickBot="1"/>
+    <row r="151" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B151" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" ht="17.5" thickBot="1"/>
+    <row r="153" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="H153" s="110"/>
+      <c r="I153" s="110"/>
+      <c r="J153" s="110"/>
+      <c r="K153" s="110"/>
+    </row>
+    <row r="154" spans="2:13" ht="17.5" thickBot="1">
+      <c r="C154" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" s="19"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="7"/>
+    </row>
+    <row r="155" spans="2:13" ht="17.5" thickBot="1">
+      <c r="C155" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="7"/>
+    </row>
+    <row r="156" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" s="111"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="7"/>
+    </row>
+    <row r="157" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B157" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="7"/>
+    </row>
+    <row r="158" spans="2:13" ht="17.5" thickBot="1">
+      <c r="B158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" s="11"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="16"/>
+    </row>
+    <row r="159" spans="2:13" ht="17.5" thickBot="1">
+      <c r="F159" s="1"/>
+      <c r="H159" s="110"/>
+      <c r="I159" s="110"/>
+      <c r="J159" s="110"/>
+      <c r="K159" s="110"/>
+    </row>
+    <row r="160" spans="2:13" ht="17.5" thickBot="1">
+      <c r="C160" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="110"/>
+      <c r="I160" s="110"/>
+      <c r="J160" s="110"/>
+      <c r="K160" s="110"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="C161" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C162" s="107"/>
+      <c r="D162" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="111"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C163" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="16"/>
-    </row>
-    <row r="87" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B87" s="48"/>
-    </row>
-    <row r="88" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B88" s="48"/>
-      <c r="C88" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="1" t="s">
+      <c r="D163" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C164" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C165" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B89" s="49"/>
-      <c r="C89" s="121" t="s">
-        <v>287</v>
-      </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="1" t="s">
+      <c r="D165" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C166" s="13" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" ht="17.5" thickBot="1">
-      <c r="C93" t="s">
-        <v>180</v>
-      </c>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-    </row>
-    <row r="94" spans="2:16" ht="17.5" thickBot="1">
-      <c r="C94" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="D94" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="116"/>
-      <c r="F94" s="116"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="116"/>
-      <c r="I94" s="116"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="117"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-    </row>
-    <row r="95" spans="2:16" ht="17.5" thickBot="1">
-      <c r="C95" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="38"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-    </row>
-    <row r="96" spans="2:16" ht="17.5" thickBot="1">
-      <c r="C96" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="38"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-    </row>
-    <row r="97" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C97" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97" s="112"/>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="113"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-    </row>
-    <row r="98" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C98" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98" s="112"/>
-      <c r="F98" s="112"/>
-      <c r="G98" s="112"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="113"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-    </row>
-    <row r="99" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C99" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="38"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-    </row>
-    <row r="100" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C100" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="38"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-    </row>
-    <row r="101" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C101" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="38"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-    </row>
-    <row r="102" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C102" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="38"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-    </row>
-    <row r="103" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C103" t="s">
-        <v>180</v>
-      </c>
-      <c r="N103" s="40"/>
-      <c r="O103" s="40"/>
-      <c r="P103" s="40"/>
-    </row>
-    <row r="104" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C104" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="38"/>
-      <c r="N104" s="40"/>
-      <c r="O104" s="40"/>
-      <c r="P104" s="40"/>
-    </row>
-    <row r="105" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C105" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="38"/>
-      <c r="N105" s="40"/>
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
-    </row>
-    <row r="106" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C106" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="38"/>
-    </row>
-    <row r="107" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C107" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="E107" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="F107" s="43"/>
-      <c r="G107" s="38"/>
-    </row>
-    <row r="108" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C108" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E108" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F108" s="43"/>
-      <c r="G108" s="38"/>
-    </row>
-    <row r="109" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C109" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E109" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="F109" s="43"/>
-      <c r="G109" s="38"/>
-    </row>
-    <row r="110" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C110" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E110" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="38"/>
-    </row>
-    <row r="111" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C111" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="F111" s="43"/>
-      <c r="G111" s="38"/>
-    </row>
-    <row r="112" spans="3:16" ht="17.5" thickBot="1">
-      <c r="C112" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E112" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="38"/>
-    </row>
-    <row r="113" spans="2:12" ht="17.5" thickBot="1">
-      <c r="C113" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E113" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F113" s="43"/>
-      <c r="G113" s="38"/>
-    </row>
-    <row r="114" spans="2:12" ht="17.5" thickBot="1">
-      <c r="C114" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E114" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="38"/>
-      <c r="K114" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" ht="17.5" thickBot="1">
-      <c r="C115" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="102"/>
-      <c r="K115" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="L115" s="13"/>
-    </row>
-    <row r="116" spans="2:12">
-      <c r="C116" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-      <c r="G116" s="105"/>
-      <c r="K116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12">
-      <c r="C117" s="118" t="s">
-        <v>284</v>
-      </c>
-      <c r="D117" s="119"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="119"/>
-      <c r="G117" s="120"/>
-      <c r="K117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12">
-      <c r="C118" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
-      <c r="F118" s="104"/>
-      <c r="G118" s="105"/>
-      <c r="K118" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" ht="17.5" thickBot="1">
-      <c r="C119" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
-      <c r="F119" s="104"/>
-      <c r="G119" s="105"/>
-    </row>
-    <row r="120" spans="2:12">
-      <c r="C120" s="106" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" s="80"/>
-      <c r="E120" s="80"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="45"/>
-    </row>
-    <row r="121" spans="2:12" ht="17.5" thickBot="1">
-      <c r="C121" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="D121" s="107"/>
-      <c r="E121" s="107"/>
-      <c r="F121" s="107"/>
-      <c r="G121" s="74"/>
-    </row>
-    <row r="128" spans="2:12">
-      <c r="B128" t="s">
-        <v>231</v>
-      </c>
-      <c r="D128" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" t="s">
-        <v>232</v>
-      </c>
-      <c r="D129" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" t="s">
-        <v>234</v>
-      </c>
-      <c r="D130" t="s">
-        <v>235</v>
+      <c r="D166" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="112"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="C167" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="C168" s="106"/>
+      <c r="D168" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E168" s="110"/>
+      <c r="F168" s="113"/>
+      <c r="G168" s="110"/>
+      <c r="H168" s="110"/>
+      <c r="I168" s="110"/>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C169" s="107"/>
+      <c r="D169" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="11"/>
+      <c r="F169" s="111"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="12"/>
+    </row>
+    <row r="171" spans="2:10" ht="17.5" thickBot="1"/>
+    <row r="172" spans="2:10" ht="17.5" thickBot="1">
+      <c r="B172" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" t="s">
+        <v>310</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C174" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="2:10" ht="17.5" thickBot="1"/>
+    <row r="176" spans="2:10" ht="17.5" thickBot="1">
+      <c r="C176" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="D176" s="92"/>
+      <c r="E176" s="93"/>
+    </row>
+    <row r="177" spans="3:5" ht="17.5" thickBot="1">
+      <c r="C177" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="3:5" ht="17.5" thickBot="1">
+      <c r="C178" s="160" t="s">
+        <v>314</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E178" s="16"/>
+    </row>
+    <row r="179" spans="3:5" ht="17.5" thickBot="1">
+      <c r="C179" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="57" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="17.5" thickBot="1">
+      <c r="C180" s="110"/>
+      <c r="D180" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" ht="17.5" thickBot="1">
+      <c r="D181" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="17.5" thickBot="1">
+      <c r="D182" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="17.5" thickBot="1">
+      <c r="D183" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" s="159" customFormat="1"/>
+    <row r="186" spans="3:5">
+      <c r="C186" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5">
+      <c r="C188" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="C189" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="C191" t="s">
+        <v>431</v>
+      </c>
+      <c r="D191" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="D192" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D100:K100"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D101:K101"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="D102:K102"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D97:K97"/>
-    <mergeCell ref="D98:K98"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B5:B18"/>
-    <mergeCell ref="B27:B75"/>
+  <mergeCells count="43">
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="B116:B145"/>
+    <mergeCell ref="E135:I135"/>
+    <mergeCell ref="E134:I134"/>
+    <mergeCell ref="E133:I133"/>
+    <mergeCell ref="E132:I132"/>
+    <mergeCell ref="E131:I131"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="B102:B112"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="B28:B96"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="D117:L117"/>
+    <mergeCell ref="D125:L125"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="C129:I129"/>
+    <mergeCell ref="C128:I128"/>
+    <mergeCell ref="D122:L122"/>
+    <mergeCell ref="D123:L123"/>
+    <mergeCell ref="D124:L124"/>
+    <mergeCell ref="D119:L119"/>
+    <mergeCell ref="D120:L120"/>
+    <mergeCell ref="D121:L121"/>
+    <mergeCell ref="D118:L118"/>
+    <mergeCell ref="E136:I136"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="E138:I138"/>
+    <mergeCell ref="C139:I139"/>
+    <mergeCell ref="C140:I140"/>
+    <mergeCell ref="C144:I144"/>
+    <mergeCell ref="C145:I145"/>
+    <mergeCell ref="C141:I141"/>
+    <mergeCell ref="C142:I142"/>
+    <mergeCell ref="C143:I143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6405,7 +9634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C49608D-7E7B-4F70-A399-F2A39BB6E54A}">
   <dimension ref="B3:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -6528,10 +9757,10 @@
       <c r="C10" t="s">
         <v>170</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="36"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="3:16" ht="17.5" thickBot="1">
       <c r="L11" s="31"/>
@@ -6650,10 +9879,10 @@
       <c r="C18" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="38"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="3:13" ht="17.5" thickBot="1"/>
     <row r="20" spans="3:13" ht="17.5" thickBot="1">
@@ -6669,10 +9898,6 @@
       <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="3:13" ht="17.5" thickBot="1">
       <c r="C21" s="17" t="s">
@@ -6687,10 +9912,6 @@
       <c r="F21" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="3:13" ht="17.5" thickBot="1">
       <c r="C22" s="20" t="s">
@@ -6705,10 +9926,6 @@
       <c r="F22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="3:13" ht="17.5" thickBot="1">
       <c r="C23" s="28" t="s">
@@ -6723,10 +9940,6 @@
       <c r="F23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="3:13" ht="17.5" thickBot="1">
       <c r="C24" s="29" t="s">
@@ -6741,10 +9954,6 @@
       <c r="F24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="3:13" ht="17.5" thickBot="1">
       <c r="C25" s="30" t="s">
@@ -6759,10 +9968,6 @@
       <c r="F25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="3:13" ht="17.5" thickBot="1">
       <c r="E26" s="34" t="s">
@@ -6823,12 +10028,12 @@
       <c r="F34" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="52"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="16"/>
       <c r="L34" s="27" t="s">
         <v>102</v>
       </c>
@@ -6843,13 +10048,13 @@
       </c>
     </row>
     <row r="35" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="105" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F35" s="14" t="s">
@@ -6875,11 +10080,11 @@
       </c>
     </row>
     <row r="36" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C36" s="48"/>
-      <c r="D36" s="41" t="s">
+      <c r="C36" s="106"/>
+      <c r="D36" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="18" t="s">
@@ -6905,11 +10110,11 @@
       </c>
     </row>
     <row r="37" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C37" s="48"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="41" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -6935,11 +10140,11 @@
       </c>
     </row>
     <row r="38" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C38" s="48"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -6951,7 +10156,6 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="40"/>
       <c r="L38" s="29" t="s">
         <v>88</v>
       </c>
@@ -6966,11 +10170,11 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C39" s="49"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="18" t="s">
@@ -6982,7 +10186,6 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="40"/>
       <c r="L39" s="30" t="s">
         <v>89</v>
       </c>
@@ -6997,18 +10200,8 @@
       </c>
     </row>
     <row r="40" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C40" s="58"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="C40" s="37"/>
+      <c r="E40" s="45"/>
       <c r="O40" s="34" t="s">
         <v>124</v>
       </c>
@@ -7017,13 +10210,13 @@
       </c>
     </row>
     <row r="41" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="105" t="s">
         <v>146</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -7035,7 +10228,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
-      <c r="M41" s="59"/>
+      <c r="M41" s="44"/>
       <c r="O41" s="34" t="s">
         <v>125</v>
       </c>
@@ -7044,11 +10237,11 @@
       </c>
     </row>
     <row r="42" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C42" s="48"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -7068,11 +10261,11 @@
       </c>
     </row>
     <row r="43" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C43" s="48"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="41" t="s">
         <v>71</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -7092,11 +10285,11 @@
       </c>
     </row>
     <row r="44" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C44" s="48"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="18" t="s">
@@ -7116,11 +10309,11 @@
       </c>
     </row>
     <row r="45" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C45" s="49"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="18" t="s">
@@ -7134,29 +10327,17 @@
       <c r="J45" s="16"/>
     </row>
     <row r="46" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C46" s="58"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
+      <c r="C46" s="37"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="105" t="s">
         <v>147</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -7168,19 +10349,18 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="16"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
     </row>
     <row r="48" spans="3:18" ht="17.5" thickBot="1">
-      <c r="C48" s="48"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -7192,19 +10372,18 @@
       <c r="H48" s="6"/>
       <c r="I48" s="14"/>
       <c r="J48" s="7"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="63"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="44"/>
     </row>
     <row r="49" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C49" s="48"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="41" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -7216,19 +10395,18 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="16"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="63"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="44"/>
     </row>
     <row r="50" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C50" s="48"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -7240,19 +10418,18 @@
       <c r="H50" s="11"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="63"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="44"/>
     </row>
     <row r="51" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C51" s="49"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -7264,38 +10441,29 @@
       <c r="H51" s="19"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="63"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="44"/>
     </row>
     <row r="52" spans="2:18" ht="17.5" thickBot="1">
-      <c r="B52" s="40"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="63"/>
+      <c r="C52" s="37"/>
+      <c r="E52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="44"/>
     </row>
     <row r="53" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="105" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -7307,19 +10475,18 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="63"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="44"/>
     </row>
     <row r="54" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C54" s="48"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F54" s="18" t="s">
@@ -7331,19 +10498,18 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="63"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="44"/>
     </row>
     <row r="55" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C55" s="48"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="41" t="s">
         <v>71</v>
       </c>
       <c r="F55" s="18" t="s">
@@ -7355,19 +10521,18 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="16"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="63"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="44"/>
     </row>
     <row r="56" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C56" s="48"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -7376,22 +10541,19 @@
       <c r="G56" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
       <c r="J56" s="9"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="63"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="44"/>
     </row>
     <row r="57" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C57" s="49"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F57" s="18" t="s">
@@ -7403,38 +10565,36 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="16"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="63"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="44"/>
     </row>
     <row r="58" spans="2:18" ht="17.5" thickBot="1">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
     </row>
     <row r="59" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="105" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -7446,19 +10606,18 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="7"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
     </row>
     <row r="60" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C60" s="48"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="54" t="s">
+      <c r="E60" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="18" t="s">
@@ -7470,19 +10629,13 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="7"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
     </row>
     <row r="61" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C61" s="48"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="41" t="s">
         <v>71</v>
       </c>
       <c r="F61" s="18" t="s">
@@ -7494,19 +10647,13 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
     </row>
     <row r="62" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C62" s="48"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F62" s="18" t="s">
@@ -7518,19 +10665,13 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="16"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
     </row>
     <row r="63" spans="2:18" ht="17.5" thickBot="1">
-      <c r="C63" s="49"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F63" s="13" t="s">
@@ -7544,315 +10685,315 @@
       <c r="J63" s="12"/>
     </row>
     <row r="67" spans="2:19">
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
     </row>
     <row r="68" spans="2:19">
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="64"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
     </row>
     <row r="69" spans="2:19">
-      <c r="B69" s="63"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="63"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="44"/>
     </row>
     <row r="70" spans="2:19">
-      <c r="B70" s="63"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="65"/>
-      <c r="S70" s="63"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="44"/>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="63"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63"/>
-      <c r="N72" s="63"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="63"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="65"/>
-      <c r="S72" s="63"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="44"/>
     </row>
     <row r="73" spans="2:19">
-      <c r="B73" s="63"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="63"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="44"/>
     </row>
     <row r="74" spans="2:19">
-      <c r="B74" s="63"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="63"/>
-      <c r="O74" s="60"/>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="65"/>
-      <c r="S74" s="63"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="44"/>
     </row>
     <row r="75" spans="2:19">
-      <c r="B75" s="63"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="63"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="44"/>
     </row>
     <row r="76" spans="2:19">
-      <c r="B76" s="63"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="63"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="44"/>
     </row>
     <row r="77" spans="2:19">
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="63"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="44"/>
     </row>
     <row r="78" spans="2:19">
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="63"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="44"/>
     </row>
     <row r="79" spans="2:19">
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="63"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="44"/>
     </row>
     <row r="80" spans="2:19">
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="63"/>
-      <c r="N80" s="63"/>
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="65"/>
-      <c r="S80" s="63"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="44"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="63"/>
-      <c r="R81" s="65"/>
-      <c r="S81" s="63"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C47:C51"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C59:C63"/>
     <mergeCell ref="C72:C76"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C47:C51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7861,6 +11002,596 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4D591D-DA66-430F-9B7E-B15A5D9131EF}">
+  <dimension ref="C3:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="35.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" ht="17" customHeight="1" thickBot="1"/>
+    <row r="4" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C4" s="141" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C5" s="142"/>
+      <c r="D5" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C6" s="142"/>
+      <c r="D6" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C7" s="142"/>
+      <c r="D7" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C8" s="142"/>
+      <c r="D8" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C9" s="143"/>
+      <c r="D9" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C10" s="144" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C11" s="145"/>
+      <c r="D11" s="125" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C12" s="145"/>
+      <c r="D12" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C13" s="145"/>
+      <c r="D13" s="125" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C14" s="145"/>
+      <c r="D14" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C15" s="145"/>
+      <c r="D15" s="125" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C16" s="145"/>
+      <c r="D16" s="125" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C17" s="145"/>
+      <c r="D17" s="125" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C18" s="146"/>
+      <c r="D18" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C19" s="147" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C20" s="148"/>
+      <c r="D20" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C21" s="148"/>
+      <c r="D21" s="125" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C22" s="148"/>
+      <c r="D22" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C23" s="149"/>
+      <c r="D23" s="127" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="122" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C24" s="150" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C25" s="151"/>
+      <c r="D25" s="125" t="s">
+        <v>372</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C26" s="151"/>
+      <c r="D26" s="125" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C27" s="151"/>
+      <c r="D27" s="125" t="s">
+        <v>376</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C28" s="152"/>
+      <c r="D28" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="F28" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C29" s="153" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C30" s="154"/>
+      <c r="D30" s="125" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C31" s="155"/>
+      <c r="D31" s="127" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+    </row>
+    <row r="33" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C33" s="156" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="130" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C34" s="157"/>
+      <c r="D34" s="132" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" s="133" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="134"/>
+    </row>
+    <row r="35" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C35" s="157"/>
+      <c r="D35" s="132" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35" s="135" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" s="134"/>
+    </row>
+    <row r="36" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C36" s="157"/>
+      <c r="D36" s="132" t="s">
+        <v>390</v>
+      </c>
+      <c r="E36" s="133" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="134"/>
+    </row>
+    <row r="37" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C37" s="157"/>
+      <c r="D37" s="132" t="s">
+        <v>392</v>
+      </c>
+      <c r="E37" s="133" t="s">
+        <v>393</v>
+      </c>
+      <c r="F37" s="134"/>
+    </row>
+    <row r="38" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C38" s="158"/>
+      <c r="D38" s="136" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38" s="138"/>
+    </row>
+    <row r="39" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+    </row>
+    <row r="40" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C40" s="156" t="s">
+        <v>418</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C41" s="157"/>
+      <c r="D41" s="132" t="s">
+        <v>396</v>
+      </c>
+      <c r="E41" s="133" t="s">
+        <v>397</v>
+      </c>
+      <c r="F41" s="134"/>
+    </row>
+    <row r="42" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C42" s="158"/>
+      <c r="D42" s="136" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" s="137" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="138"/>
+    </row>
+    <row r="43" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+    </row>
+    <row r="44" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C44" s="156" t="s">
+        <v>419</v>
+      </c>
+      <c r="D44" s="130" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="F44" s="131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C45" s="157"/>
+      <c r="D45" s="132" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" s="135" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="134"/>
+    </row>
+    <row r="46" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C46" s="157"/>
+      <c r="D46" s="132" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" s="133" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="134"/>
+    </row>
+    <row r="47" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C47" s="158"/>
+      <c r="D47" s="136" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="137" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" s="138"/>
+    </row>
+    <row r="48" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+    </row>
+    <row r="49" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C49" s="156" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="139" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C50" s="157"/>
+      <c r="D50" s="132" t="s">
+        <v>406</v>
+      </c>
+      <c r="E50" s="133" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50" s="134"/>
+    </row>
+    <row r="51" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C51" s="157"/>
+      <c r="D51" s="132" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="133" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" s="134"/>
+    </row>
+    <row r="52" spans="3:6" ht="17" customHeight="1" thickBot="1">
+      <c r="C52" s="158"/>
+      <c r="D52" s="136" t="s">
+        <v>410</v>
+      </c>
+      <c r="E52" s="137" t="s">
+        <v>411</v>
+      </c>
+      <c r="F52" s="138"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25BAFE0-5D0A-4374-B5ED-E9CA61C2844A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7906,7 +11637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C89027-D83F-4814-A8BB-EA29741C87C3}">
   <dimension ref="B2:I47"/>
   <sheetViews>
@@ -8409,7 +12140,7 @@
       <c r="C37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="109" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="2"/>
@@ -8423,7 +12154,7 @@
       <c r="C38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -8435,7 +12166,7 @@
       <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
